--- a/app-medicine-r/modulos/data/datos_suspensiones_bd.xlsx
+++ b/app-medicine-r/modulos/data/datos_suspensiones_bd.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rstudio\app_health_r_medicine\app-medicine-r\modulos\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F2DEB0-4E5B-4C5F-BFA3-4C1F69636BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="24">
   <si>
     <t>Mes</t>
   </si>
@@ -89,11 +97,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -105,7 +112,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -123,18 +130,332 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="40.88671875" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -148,7 +469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -158,11 +479,11 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.3103448275862069</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="D2">
+        <v>0.31034482758620691</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -172,11 +493,11 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.3235294117647059</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -186,11 +507,11 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.3103448275862069</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="D4">
+        <v>0.31034482758620691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -200,11 +521,11 @@
       <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.3235294117647059</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -214,11 +535,11 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.13793103448275862</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -228,11 +549,11 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -242,11 +563,11 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.20689655172413793</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -256,11 +577,11 @@
       <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.20588235294117646</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -270,11 +591,11 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.034482758620689655</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10">
+        <v>3.4482758620689655E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -284,11 +605,11 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.029411764705882353</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="D11">
+        <v>2.9411764705882353E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -298,11 +619,11 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -312,11 +633,11 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -326,11 +647,11 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.4230769230769231</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="D14">
+        <v>0.42307692307692307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -340,11 +661,11 @@
       <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.4074074074074074</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="D15">
+        <v>0.40740740740740738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -354,11 +675,11 @@
       <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.2692307692307692</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="D16">
+        <v>0.26923076923076922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -368,11 +689,11 @@
       <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -382,11 +703,11 @@
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.19230769230769232</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -396,11 +717,11 @@
       <c r="C19" t="s">
         <v>23</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.18518518518518517</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -410,11 +731,11 @@
       <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -424,11 +745,11 @@
       <c r="C21" t="s">
         <v>23</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -438,11 +759,11 @@
       <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -452,11 +773,11 @@
       <c r="C23" t="s">
         <v>23</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -466,11 +787,11 @@
       <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -480,11 +801,11 @@
       <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -494,11 +815,11 @@
       <c r="C26" t="s">
         <v>22</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -508,11 +829,11 @@
       <c r="C27" t="s">
         <v>23</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -522,11 +843,11 @@
       <c r="C28" t="s">
         <v>22</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -536,11 +857,11 @@
       <c r="C29" t="s">
         <v>23</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -550,11 +871,11 @@
       <c r="C30" t="s">
         <v>22</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.03571428571428571</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="D30">
+        <v>3.5714285714285712E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -564,11 +885,11 @@
       <c r="C31" t="s">
         <v>23</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.03571428571428571</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="D31">
+        <v>3.5714285714285712E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -578,11 +899,11 @@
       <c r="C32" t="s">
         <v>22</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="D32">
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -592,11 +913,11 @@
       <c r="C33" t="s">
         <v>23</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="D33">
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -606,11 +927,11 @@
       <c r="C34" t="s">
         <v>22</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="D34">
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -620,11 +941,11 @@
       <c r="C35" t="s">
         <v>23</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="D35">
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -634,11 +955,11 @@
       <c r="C36" t="s">
         <v>22</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -648,11 +969,11 @@
       <c r="C37" t="s">
         <v>23</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -662,11 +983,11 @@
       <c r="C38" t="s">
         <v>22</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="D38">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -676,11 +997,11 @@
       <c r="C39" t="s">
         <v>23</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.5757575757575758</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -690,11 +1011,11 @@
       <c r="C40" t="s">
         <v>22</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>0.3</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -704,11 +1025,11 @@
       <c r="C41" t="s">
         <v>23</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="D41">
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -718,11 +1039,11 @@
       <c r="C42" t="s">
         <v>22</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="D42">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -732,11 +1053,11 @@
       <c r="C43" t="s">
         <v>23</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="D43">
+        <v>6.0606060606060608E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -746,11 +1067,11 @@
       <c r="C44" t="s">
         <v>22</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -760,11 +1081,11 @@
       <c r="C45" t="s">
         <v>23</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -774,11 +1095,11 @@
       <c r="C46" t="s">
         <v>22</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="D46">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -788,11 +1109,11 @@
       <c r="C47" t="s">
         <v>23</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="D47">
+        <v>6.0606060606060608E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -802,11 +1123,11 @@
       <c r="C48" t="s">
         <v>22</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="D48">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -816,11 +1137,11 @@
       <c r="C49" t="s">
         <v>23</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.030303030303030304</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="D49">
+        <v>3.0303030303030304E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -830,11 +1151,11 @@
       <c r="C50" t="s">
         <v>22</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>0.26</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -844,11 +1165,11 @@
       <c r="C51" t="s">
         <v>23</v>
       </c>
-      <c r="D51" t="n">
-        <v>0.3148148148148148</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="D51">
+        <v>0.31481481481481483</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -858,11 +1179,11 @@
       <c r="C52" t="s">
         <v>22</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>0.32</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -872,11 +1193,11 @@
       <c r="C53" t="s">
         <v>23</v>
       </c>
-      <c r="D53" t="n">
-        <v>0.2962962962962963</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="D53">
+        <v>0.29629629629629628</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -886,11 +1207,11 @@
       <c r="C54" t="s">
         <v>22</v>
       </c>
-      <c r="D54" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="D54">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -900,11 +1221,11 @@
       <c r="C55" t="s">
         <v>23</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>0.12962962962962962</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -914,11 +1235,11 @@
       <c r="C56" t="s">
         <v>22</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>0.02</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -928,11 +1249,11 @@
       <c r="C57" t="s">
         <v>23</v>
       </c>
-      <c r="D57" t="n">
-        <v>0.018518518518518517</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="D57">
+        <v>1.8518518518518517E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -942,11 +1263,11 @@
       <c r="C58" t="s">
         <v>22</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>0.26</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -956,11 +1277,11 @@
       <c r="C59" t="s">
         <v>23</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>0.24074074074074073</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -970,11 +1291,11 @@
       <c r="C60" t="s">
         <v>22</v>
       </c>
-      <c r="D60" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -984,11 +1305,11 @@
       <c r="C61" t="s">
         <v>23</v>
       </c>
-      <c r="D61" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -998,11 +1319,11 @@
       <c r="C62" t="s">
         <v>22</v>
       </c>
-      <c r="D62" t="n">
-        <v>0.5142857142857142</v>
-      </c>
-    </row>
-    <row r="63">
+      <c r="D62">
+        <v>0.51428571428571423</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -1012,11 +1333,11 @@
       <c r="C63" t="s">
         <v>23</v>
       </c>
-      <c r="D63" t="n">
-        <v>0.525</v>
-      </c>
-    </row>
-    <row r="64">
+      <c r="D63">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1026,11 +1347,11 @@
       <c r="C64" t="s">
         <v>22</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -1040,11 +1361,11 @@
       <c r="C65" t="s">
         <v>23</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>0.25</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1054,11 +1375,11 @@
       <c r="C66" t="s">
         <v>22</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>0.11428571428571428</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -1068,11 +1389,11 @@
       <c r="C67" t="s">
         <v>23</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>0.125</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -1082,11 +1403,11 @@
       <c r="C68" t="s">
         <v>22</v>
       </c>
-      <c r="D68" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -1096,11 +1417,11 @@
       <c r="C69" t="s">
         <v>23</v>
       </c>
-      <c r="D69" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -1110,11 +1431,11 @@
       <c r="C70" t="s">
         <v>22</v>
       </c>
-      <c r="D70" t="n">
-        <v>0.02857142857142857</v>
-      </c>
-    </row>
-    <row r="71">
+      <c r="D70">
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -1124,11 +1445,11 @@
       <c r="C71" t="s">
         <v>23</v>
       </c>
-      <c r="D71" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="72">
+      <c r="D71">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -1138,11 +1459,11 @@
       <c r="C72" t="s">
         <v>22</v>
       </c>
-      <c r="D72" t="n">
-        <v>0.05714285714285714</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="D72">
+        <v>5.7142857142857141E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -1152,11 +1473,11 @@
       <c r="C73" t="s">
         <v>23</v>
       </c>
-      <c r="D73" t="n">
-        <v>0.075</v>
-      </c>
-    </row>
-    <row r="74">
+      <c r="D73">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -1166,11 +1487,11 @@
       <c r="C74" t="s">
         <v>22</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -1180,11 +1501,11 @@
       <c r="C75" t="s">
         <v>23</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -1194,11 +1515,11 @@
       <c r="C76" t="s">
         <v>22</v>
       </c>
-      <c r="D76" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-    </row>
-    <row r="77">
+      <c r="D76">
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -1208,11 +1529,11 @@
       <c r="C77" t="s">
         <v>23</v>
       </c>
-      <c r="D77" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="78">
+      <c r="D77">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -1222,11 +1543,11 @@
       <c r="C78" t="s">
         <v>22</v>
       </c>
-      <c r="D78" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-    </row>
-    <row r="79">
+      <c r="D78">
+        <v>6.0606060606060608E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -1236,11 +1557,11 @@
       <c r="C79" t="s">
         <v>23</v>
       </c>
-      <c r="D79" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="D79">
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -1250,11 +1571,11 @@
       <c r="C80" t="s">
         <v>22</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>0.15151515151515152</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -1264,11 +1585,11 @@
       <c r="C81" t="s">
         <v>23</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>0.11904761904761904</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -1278,11 +1599,11 @@
       <c r="C82" t="s">
         <v>22</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>0.15151515151515152</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -1292,11 +1613,11 @@
       <c r="C83" t="s">
         <v>23</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>0.11904761904761904</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -1306,11 +1627,11 @@
       <c r="C84" t="s">
         <v>22</v>
       </c>
-      <c r="D84" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="85">
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -1320,11 +1641,11 @@
       <c r="C85" t="s">
         <v>23</v>
       </c>
-      <c r="D85" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="86">
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -1334,11 +1655,11 @@
       <c r="C86" t="s">
         <v>22</v>
       </c>
-      <c r="D86" t="n">
-        <v>0.4146341463414634</v>
-      </c>
-    </row>
-    <row r="87">
+      <c r="D86">
+        <v>0.41463414634146339</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -1348,11 +1669,11 @@
       <c r="C87" t="s">
         <v>23</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>0.41304347826086957</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -1362,11 +1683,11 @@
       <c r="C88" t="s">
         <v>22</v>
       </c>
-      <c r="D88" t="n">
-        <v>0.3170731707317073</v>
-      </c>
-    </row>
-    <row r="89">
+      <c r="D88">
+        <v>0.31707317073170732</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -1376,11 +1697,11 @@
       <c r="C89" t="s">
         <v>23</v>
       </c>
-      <c r="D89" t="n">
-        <v>0.2826086956521739</v>
-      </c>
-    </row>
-    <row r="90">
+      <c r="D89">
+        <v>0.28260869565217389</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -1390,11 +1711,11 @@
       <c r="C90" t="s">
         <v>22</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>0.12195121951219512</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -1404,11 +1725,11 @@
       <c r="C91" t="s">
         <v>23</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>0.13043478260869565</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -1418,11 +1739,11 @@
       <c r="C92" t="s">
         <v>22</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>0.14634146341463414</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -1432,11 +1753,11 @@
       <c r="C93" t="s">
         <v>23</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>0.17391304347826086</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -1446,11 +1767,11 @@
       <c r="C94" t="s">
         <v>22</v>
       </c>
-      <c r="D94" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="95">
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -1460,11 +1781,11 @@
       <c r="C95" t="s">
         <v>23</v>
       </c>
-      <c r="D95" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="96">
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -1474,11 +1795,11 @@
       <c r="C96" t="s">
         <v>22</v>
       </c>
-      <c r="D96" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="97">
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -1488,11 +1809,11 @@
       <c r="C97" t="s">
         <v>23</v>
       </c>
-      <c r="D97" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="98">
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -1502,11 +1823,11 @@
       <c r="C98" t="s">
         <v>22</v>
       </c>
-      <c r="D98" t="n">
-        <v>0.6206896551724138</v>
-      </c>
-    </row>
-    <row r="99">
+      <c r="D98">
+        <v>0.62068965517241381</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -1516,11 +1837,11 @@
       <c r="C99" t="s">
         <v>23</v>
       </c>
-      <c r="D99" t="n">
-        <v>0.6206896551724138</v>
-      </c>
-    </row>
-    <row r="100">
+      <c r="D99">
+        <v>0.62068965517241381</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -1530,11 +1851,11 @@
       <c r="C100" t="s">
         <v>22</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>0.2413793103448276</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -1544,11 +1865,11 @@
       <c r="C101" t="s">
         <v>23</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>0.2413793103448276</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -1558,11 +1879,11 @@
       <c r="C102" t="s">
         <v>22</v>
       </c>
-      <c r="D102" t="n">
-        <v>0.034482758620689655</v>
-      </c>
-    </row>
-    <row r="103">
+      <c r="D102">
+        <v>3.4482758620689655E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -1572,11 +1893,11 @@
       <c r="C103" t="s">
         <v>23</v>
       </c>
-      <c r="D103" t="n">
-        <v>0.034482758620689655</v>
-      </c>
-    </row>
-    <row r="104">
+      <c r="D103">
+        <v>3.4482758620689655E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -1586,11 +1907,11 @@
       <c r="C104" t="s">
         <v>22</v>
       </c>
-      <c r="D104" t="n">
-        <v>0.034482758620689655</v>
-      </c>
-    </row>
-    <row r="105">
+      <c r="D104">
+        <v>3.4482758620689655E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -1600,11 +1921,11 @@
       <c r="C105" t="s">
         <v>23</v>
       </c>
-      <c r="D105" t="n">
-        <v>0.034482758620689655</v>
-      </c>
-    </row>
-    <row r="106">
+      <c r="D105">
+        <v>3.4482758620689655E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -1614,11 +1935,11 @@
       <c r="C106" t="s">
         <v>22</v>
       </c>
-      <c r="D106" t="n">
-        <v>0.06896551724137931</v>
-      </c>
-    </row>
-    <row r="107">
+      <c r="D106">
+        <v>6.8965517241379309E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -1628,11 +1949,11 @@
       <c r="C107" t="s">
         <v>23</v>
       </c>
-      <c r="D107" t="n">
-        <v>0.06896551724137931</v>
-      </c>
-    </row>
-    <row r="108">
+      <c r="D107">
+        <v>6.8965517241379309E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -1642,11 +1963,11 @@
       <c r="C108" t="s">
         <v>22</v>
       </c>
-      <c r="D108" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="109">
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -1656,11 +1977,11 @@
       <c r="C109" t="s">
         <v>23</v>
       </c>
-      <c r="D109" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="110">
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -1670,11 +1991,11 @@
       <c r="C110" t="s">
         <v>22</v>
       </c>
-      <c r="D110" t="n">
-        <v>0.391304347826087</v>
-      </c>
-    </row>
-    <row r="111">
+      <c r="D110">
+        <v>0.39130434782608697</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -1684,11 +2005,11 @@
       <c r="C111" t="s">
         <v>23</v>
       </c>
-      <c r="D111" t="n">
-        <v>0.4230769230769231</v>
-      </c>
-    </row>
-    <row r="112">
+      <c r="D111">
+        <v>0.42307692307692307</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -1698,11 +2019,11 @@
       <c r="C112" t="s">
         <v>22</v>
       </c>
-      <c r="D112" t="n">
-        <v>0.391304347826087</v>
-      </c>
-    </row>
-    <row r="113">
+      <c r="D112">
+        <v>0.39130434782608697</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -1712,11 +2033,11 @@
       <c r="C113" t="s">
         <v>23</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>0.34615384615384615</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -1726,11 +2047,11 @@
       <c r="C114" t="s">
         <v>22</v>
       </c>
-      <c r="D114" t="n">
-        <v>0.08695652173913043</v>
-      </c>
-    </row>
-    <row r="115">
+      <c r="D114">
+        <v>8.6956521739130432E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -1740,11 +2061,11 @@
       <c r="C115" t="s">
         <v>23</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -1754,11 +2075,11 @@
       <c r="C116" t="s">
         <v>22</v>
       </c>
-      <c r="D116" t="n">
-        <v>0.043478260869565216</v>
-      </c>
-    </row>
-    <row r="117">
+      <c r="D116">
+        <v>4.3478260869565216E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>13</v>
       </c>
@@ -1768,11 +2089,11 @@
       <c r="C117" t="s">
         <v>23</v>
       </c>
-      <c r="D117" t="n">
-        <v>0.038461538461538464</v>
-      </c>
-    </row>
-    <row r="118">
+      <c r="D117">
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -1782,11 +2103,11 @@
       <c r="C118" t="s">
         <v>22</v>
       </c>
-      <c r="D118" t="n">
-        <v>0.08695652173913043</v>
-      </c>
-    </row>
-    <row r="119">
+      <c r="D118">
+        <v>8.6956521739130432E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -1796,11 +2117,11 @@
       <c r="C119" t="s">
         <v>23</v>
       </c>
-      <c r="D119" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-    </row>
-    <row r="120">
+      <c r="D119">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -1810,11 +2131,11 @@
       <c r="C120" t="s">
         <v>22</v>
       </c>
-      <c r="D120" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="121">
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>13</v>
       </c>
@@ -1824,11 +2145,11 @@
       <c r="C121" t="s">
         <v>23</v>
       </c>
-      <c r="D121" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="122">
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -1838,11 +2159,11 @@
       <c r="C122" t="s">
         <v>22</v>
       </c>
-      <c r="D122" t="n">
-        <v>0.6296296296296297</v>
-      </c>
-    </row>
-    <row r="123">
+      <c r="D122">
+        <v>0.62962962962962965</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -1852,11 +2173,11 @@
       <c r="C123" t="s">
         <v>23</v>
       </c>
-      <c r="D123" t="n">
-        <v>0.6551724137931034</v>
-      </c>
-    </row>
-    <row r="124">
+      <c r="D123">
+        <v>0.65517241379310343</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -1866,11 +2187,11 @@
       <c r="C124" t="s">
         <v>22</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -1880,11 +2201,11 @@
       <c r="C125" t="s">
         <v>23</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>0.10344827586206896</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -1894,11 +2215,11 @@
       <c r="C126" t="s">
         <v>22</v>
       </c>
-      <c r="D126" t="n">
-        <v>0.07407407407407407</v>
-      </c>
-    </row>
-    <row r="127">
+      <c r="D126">
+        <v>7.407407407407407E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -1908,11 +2229,11 @@
       <c r="C127" t="s">
         <v>23</v>
       </c>
-      <c r="D127" t="n">
-        <v>0.06896551724137931</v>
-      </c>
-    </row>
-    <row r="128">
+      <c r="D127">
+        <v>6.8965517241379309E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -1922,11 +2243,11 @@
       <c r="C128" t="s">
         <v>22</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>14</v>
       </c>
@@ -1936,11 +2257,11 @@
       <c r="C129" t="s">
         <v>23</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>0.13793103448275862</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -1950,11 +2271,11 @@
       <c r="C130" t="s">
         <v>22</v>
       </c>
-      <c r="D130" t="n">
-        <v>0.037037037037037035</v>
-      </c>
-    </row>
-    <row r="131">
+      <c r="D130">
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -1964,11 +2285,11 @@
       <c r="C131" t="s">
         <v>23</v>
       </c>
-      <c r="D131" t="n">
-        <v>0.034482758620689655</v>
-      </c>
-    </row>
-    <row r="132">
+      <c r="D131">
+        <v>3.4482758620689655E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -1978,11 +2299,11 @@
       <c r="C132" t="s">
         <v>22</v>
       </c>
-      <c r="D132" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="133">
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>14</v>
       </c>
@@ -1992,11 +2313,11 @@
       <c r="C133" t="s">
         <v>23</v>
       </c>
-      <c r="D133" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="134">
+      <c r="D133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -2006,11 +2327,11 @@
       <c r="C134" t="s">
         <v>22</v>
       </c>
-      <c r="D134" t="n">
-        <v>0.5384615384615384</v>
-      </c>
-    </row>
-    <row r="135">
+      <c r="D134">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>15</v>
       </c>
@@ -2020,11 +2341,11 @@
       <c r="C135" t="s">
         <v>23</v>
       </c>
-      <c r="D135" t="n">
-        <v>0.5609756097560976</v>
-      </c>
-    </row>
-    <row r="136">
+      <c r="D135">
+        <v>0.56097560975609762</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>15</v>
       </c>
@@ -2034,11 +2355,11 @@
       <c r="C136" t="s">
         <v>22</v>
       </c>
-      <c r="D136" t="n">
-        <v>0.1282051282051282</v>
-      </c>
-    </row>
-    <row r="137">
+      <c r="D136">
+        <v>0.12820512820512819</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>15</v>
       </c>
@@ -2048,11 +2369,11 @@
       <c r="C137" t="s">
         <v>23</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>0.12195121951219512</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>15</v>
       </c>
@@ -2062,11 +2383,11 @@
       <c r="C138" t="s">
         <v>22</v>
       </c>
-      <c r="D138" t="n">
-        <v>0.1794871794871795</v>
-      </c>
-    </row>
-    <row r="139">
+      <c r="D138">
+        <v>0.17948717948717949</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>15</v>
       </c>
@@ -2076,11 +2397,11 @@
       <c r="C139" t="s">
         <v>23</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>0.17073170731707318</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>15</v>
       </c>
@@ -2090,11 +2411,11 @@
       <c r="C140" t="s">
         <v>22</v>
       </c>
-      <c r="D140" t="n">
-        <v>0.05128205128205128</v>
-      </c>
-    </row>
-    <row r="141">
+      <c r="D140">
+        <v>5.128205128205128E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>15</v>
       </c>
@@ -2104,11 +2425,11 @@
       <c r="C141" t="s">
         <v>23</v>
       </c>
-      <c r="D141" t="n">
-        <v>0.04878048780487805</v>
-      </c>
-    </row>
-    <row r="142">
+      <c r="D141">
+        <v>4.878048780487805E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>15</v>
       </c>
@@ -2118,11 +2439,11 @@
       <c r="C142" t="s">
         <v>22</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>0.10256410256410256</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>15</v>
       </c>
@@ -2132,11 +2453,11 @@
       <c r="C143" t="s">
         <v>23</v>
       </c>
-      <c r="D143" t="n">
-        <v>0.0975609756097561</v>
-      </c>
-    </row>
-    <row r="144">
+      <c r="D143">
+        <v>9.7560975609756101E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>15</v>
       </c>
@@ -2146,11 +2467,11 @@
       <c r="C144" t="s">
         <v>22</v>
       </c>
-      <c r="D144" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="145">
+      <c r="D144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -2160,25 +2481,11 @@
       <c r="C145" t="s">
         <v>23</v>
       </c>
-      <c r="D145" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>15</v>
-      </c>
-      <c r="B146" t="s">
-        <v>21</v>
-      </c>
-      <c r="C146" t="s">
-        <v>23</v>
-      </c>
-      <c r="D146" t="n">
+      <c r="D145">
         <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>